--- a/v7-Sugungum - binnedcuts/iter0/Cuts/500_4_W2_Sugungum/history_matching_config.xlsx
+++ b/v7-Sugungum - binnedcuts/iter0/Cuts/500_4_W2_Sugungum/history_matching_config.xlsx
@@ -31829,7 +31829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -31920,7 +31920,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -31938,10 +31938,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -31956,10 +31956,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>0.1</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -31988,88 +31988,52 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Concurrent_Infections_a</t>
+          <t>Concurrent_Infections_c</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Concurrent_Infections_a</t>
+          <t>Concurrent_Infections_c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Concurrent_Infections_b</t>
+          <t>Wave_Vs_Infection_Relative_Weight</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Concurrent_Infections_b</t>
+          <t>Wave_Vs_Infection_Relative_Weight</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Concurrent_Infections_c</t>
+          <t>Parasite_Density_Wave_Sigma</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>Concurrent_Infections_c</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Wave_Vs_Infection_Relative_Weight</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Wave_Vs_Infection_Relative_Weight</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Parasite_Density_Wave_Sigma</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>Parasite_Density_Wave_Sigma</t>
         </is>
